--- a/2年/アーキテクチャ/01_3DCannon/00_BaseProject/実装ノート.xlsx
+++ b/2年/アーキテクチャ/01_3DCannon/00_BaseProject/実装ノート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20357"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3294AE1C-AE10-4B82-845B-B11264B0F7F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9524350F-5B70-4F6B-8C78-7B92AC4A5426}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
   <si>
     <t>３Ｄキャノン実装ノート</t>
     <rPh sb="6" eb="8">
@@ -612,7 +612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -631,22 +631,25 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -932,7 +935,7 @@
   <dimension ref="B3:AE45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="AH11" sqref="AH11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -952,36 +955,36 @@
       </c>
     </row>
     <row r="6" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="9">
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12">
         <v>2216009</v>
       </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="O6" s="10" t="s">
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="O6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="9" t="s">
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
     </row>
     <row r="7" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C7" s="3"/>
@@ -1019,76 +1022,78 @@
       <c r="D10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
       <c r="R10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="S10" s="12" t="s">
+      <c r="S10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="12"/>
-      <c r="AC10" s="12"/>
-      <c r="AD10" s="12"/>
-      <c r="AE10" s="12"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14"/>
     </row>
     <row r="11" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="8" t="s">
+      <c r="D11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
       <c r="R11" s="6"/>
-      <c r="S11" s="8" t="s">
+      <c r="S11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
-      <c r="AA11" s="8"/>
-      <c r="AB11" s="8"/>
-      <c r="AC11" s="8"/>
-      <c r="AD11" s="8"/>
-      <c r="AE11" s="8"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="9"/>
     </row>
     <row r="12" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C12" s="5" t="s">
@@ -1097,37 +1102,37 @@
       <c r="D12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
       <c r="R12" s="6"/>
-      <c r="S12" s="8" t="s">
+      <c r="S12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="8"/>
-      <c r="AA12" s="8"/>
-      <c r="AB12" s="8"/>
-      <c r="AC12" s="8"/>
-      <c r="AD12" s="8"/>
-      <c r="AE12" s="8"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9"/>
     </row>
     <row r="13" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C13" s="5" t="s">
@@ -1136,37 +1141,37 @@
       <c r="D13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
       <c r="R13" s="6"/>
-      <c r="S13" s="8" t="s">
+      <c r="S13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="8"/>
-      <c r="AA13" s="8"/>
-      <c r="AB13" s="8"/>
-      <c r="AC13" s="8"/>
-      <c r="AD13" s="8"/>
-      <c r="AE13" s="8"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="9"/>
     </row>
     <row r="14" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C14" s="5" t="s">
@@ -1175,37 +1180,37 @@
       <c r="D14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
       <c r="R14" s="6"/>
-      <c r="S14" s="8" t="s">
+      <c r="S14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
-      <c r="AA14" s="8"/>
-      <c r="AB14" s="8"/>
-      <c r="AC14" s="8"/>
-      <c r="AD14" s="8"/>
-      <c r="AE14" s="8"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
     </row>
     <row r="15" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C15" s="5" t="s">
@@ -1214,37 +1219,37 @@
       <c r="D15" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
       <c r="R15" s="6"/>
-      <c r="S15" s="8" t="s">
+      <c r="S15" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
-      <c r="AA15" s="8"/>
-      <c r="AB15" s="8"/>
-      <c r="AC15" s="8"/>
-      <c r="AD15" s="8"/>
-      <c r="AE15" s="8"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
     </row>
     <row r="16" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C16" s="5" t="s">
@@ -1253,183 +1258,191 @@
       <c r="D16" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
       <c r="R16" s="6"/>
-      <c r="S16" s="8" t="s">
+      <c r="S16" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-      <c r="AA16" s="8"/>
-      <c r="AB16" s="8"/>
-      <c r="AC16" s="8"/>
-      <c r="AD16" s="8"/>
-      <c r="AE16" s="8"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="9"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="9"/>
     </row>
     <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="8" t="s">
+      <c r="D17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
       <c r="R17" s="6"/>
-      <c r="S17" s="8" t="s">
+      <c r="S17" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="8"/>
-      <c r="AA17" s="8"/>
-      <c r="AB17" s="8"/>
-      <c r="AC17" s="8"/>
-      <c r="AD17" s="8"/>
-      <c r="AE17" s="8"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="9"/>
+      <c r="AD17" s="9"/>
+      <c r="AE17" s="9"/>
     </row>
     <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="8" t="s">
+      <c r="D18" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
       <c r="R18" s="6"/>
-      <c r="S18" s="8" t="s">
+      <c r="S18" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="8"/>
-      <c r="AA18" s="8"/>
-      <c r="AB18" s="8"/>
-      <c r="AC18" s="8"/>
-      <c r="AD18" s="8"/>
-      <c r="AE18" s="8"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="9"/>
+      <c r="AE18" s="9"/>
     </row>
     <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="8" t="s">
+      <c r="D19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
       <c r="R19" s="6"/>
-      <c r="S19" s="8" t="s">
+      <c r="S19" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="8"/>
-      <c r="AA19" s="8"/>
-      <c r="AB19" s="8"/>
-      <c r="AC19" s="8"/>
-      <c r="AD19" s="8"/>
-      <c r="AE19" s="8"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="9"/>
+      <c r="AB19" s="9"/>
+      <c r="AC19" s="9"/>
+      <c r="AD19" s="9"/>
+      <c r="AE19" s="9"/>
     </row>
     <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="8" t="s">
+      <c r="D20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
       <c r="R20" s="6"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="8"/>
-      <c r="X20" s="8"/>
-      <c r="Y20" s="8"/>
-      <c r="Z20" s="8"/>
-      <c r="AA20" s="8"/>
-      <c r="AB20" s="8"/>
-      <c r="AC20" s="8"/>
-      <c r="AD20" s="8"/>
-      <c r="AE20" s="8"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="9"/>
+      <c r="AD20" s="9"/>
+      <c r="AE20" s="9"/>
     </row>
     <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="5" t="s">
@@ -1438,35 +1451,35 @@
       <c r="D21" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
       <c r="R21" s="6"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="8"/>
-      <c r="AA21" s="8"/>
-      <c r="AB21" s="8"/>
-      <c r="AC21" s="8"/>
-      <c r="AD21" s="8"/>
-      <c r="AE21" s="8"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="9"/>
+      <c r="AD21" s="9"/>
+      <c r="AE21" s="9"/>
     </row>
     <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="5" t="s">
@@ -1475,138 +1488,142 @@
       <c r="D22" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
       <c r="R22" s="6"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
-      <c r="X22" s="8"/>
-      <c r="Y22" s="8"/>
-      <c r="Z22" s="8"/>
-      <c r="AA22" s="8"/>
-      <c r="AB22" s="8"/>
-      <c r="AC22" s="8"/>
-      <c r="AD22" s="8"/>
-      <c r="AE22" s="8"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="9"/>
+      <c r="AD22" s="9"/>
+      <c r="AE22" s="9"/>
     </row>
     <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="8" t="s">
+      <c r="D23" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
       <c r="R23" s="6"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="8"/>
-      <c r="Y23" s="8"/>
-      <c r="Z23" s="8"/>
-      <c r="AA23" s="8"/>
-      <c r="AB23" s="8"/>
-      <c r="AC23" s="8"/>
-      <c r="AD23" s="8"/>
-      <c r="AE23" s="8"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="9"/>
+      <c r="AD23" s="9"/>
+      <c r="AE23" s="9"/>
     </row>
     <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="8" t="s">
+      <c r="D24" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
       <c r="R24" s="6"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="8"/>
-      <c r="Y24" s="8"/>
-      <c r="Z24" s="8"/>
-      <c r="AA24" s="8"/>
-      <c r="AB24" s="8"/>
-      <c r="AC24" s="8"/>
-      <c r="AD24" s="8"/>
-      <c r="AE24" s="8"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="9"/>
+      <c r="AA24" s="9"/>
+      <c r="AB24" s="9"/>
+      <c r="AC24" s="9"/>
+      <c r="AD24" s="9"/>
+      <c r="AE24" s="9"/>
     </row>
     <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D25" s="6"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
       <c r="R25" s="6"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="8"/>
-      <c r="X25" s="8"/>
-      <c r="Y25" s="8"/>
-      <c r="Z25" s="8"/>
-      <c r="AA25" s="8"/>
-      <c r="AB25" s="8"/>
-      <c r="AC25" s="8"/>
-      <c r="AD25" s="8"/>
-      <c r="AE25" s="8"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="9"/>
+      <c r="AA25" s="9"/>
+      <c r="AB25" s="9"/>
+      <c r="AC25" s="9"/>
+      <c r="AD25" s="9"/>
+      <c r="AE25" s="9"/>
     </row>
     <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="D27" s="3" t="s">
@@ -1646,427 +1663,419 @@
       </c>
     </row>
     <row r="33" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="11"/>
-      <c r="T33" s="11"/>
-      <c r="U33" s="11"/>
-      <c r="V33" s="11"/>
-      <c r="W33" s="11"/>
-      <c r="X33" s="11"/>
-      <c r="Y33" s="11"/>
-      <c r="Z33" s="11"/>
-      <c r="AA33" s="11"/>
-      <c r="AB33" s="11"/>
-      <c r="AC33" s="11"/>
-      <c r="AD33" s="11"/>
-      <c r="AE33" s="11"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="13"/>
+      <c r="Y33" s="13"/>
+      <c r="Z33" s="13"/>
+      <c r="AA33" s="13"/>
+      <c r="AB33" s="13"/>
+      <c r="AC33" s="13"/>
+      <c r="AD33" s="13"/>
+      <c r="AE33" s="13"/>
     </row>
     <row r="34" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="9"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="9"/>
-      <c r="X34" s="9"/>
-      <c r="Y34" s="9"/>
-      <c r="Z34" s="9"/>
-      <c r="AA34" s="9"/>
-      <c r="AB34" s="9"/>
-      <c r="AC34" s="9"/>
-      <c r="AD34" s="9"/>
-      <c r="AE34" s="9"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="12"/>
+      <c r="X34" s="12"/>
+      <c r="Y34" s="12"/>
+      <c r="Z34" s="12"/>
+      <c r="AA34" s="12"/>
+      <c r="AB34" s="12"/>
+      <c r="AC34" s="12"/>
+      <c r="AD34" s="12"/>
+      <c r="AE34" s="12"/>
     </row>
     <row r="35" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
-      <c r="V35" s="9"/>
-      <c r="W35" s="9"/>
-      <c r="X35" s="9"/>
-      <c r="Y35" s="9"/>
-      <c r="Z35" s="9"/>
-      <c r="AA35" s="9"/>
-      <c r="AB35" s="9"/>
-      <c r="AC35" s="9"/>
-      <c r="AD35" s="9"/>
-      <c r="AE35" s="9"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="12"/>
+      <c r="Y35" s="12"/>
+      <c r="Z35" s="12"/>
+      <c r="AA35" s="12"/>
+      <c r="AB35" s="12"/>
+      <c r="AC35" s="12"/>
+      <c r="AD35" s="12"/>
+      <c r="AE35" s="12"/>
     </row>
     <row r="36" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="9"/>
-      <c r="T36" s="9"/>
-      <c r="U36" s="9"/>
-      <c r="V36" s="9"/>
-      <c r="W36" s="9"/>
-      <c r="X36" s="9"/>
-      <c r="Y36" s="9"/>
-      <c r="Z36" s="9"/>
-      <c r="AA36" s="9"/>
-      <c r="AB36" s="9"/>
-      <c r="AC36" s="9"/>
-      <c r="AD36" s="9"/>
-      <c r="AE36" s="9"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="12"/>
+      <c r="W36" s="12"/>
+      <c r="X36" s="12"/>
+      <c r="Y36" s="12"/>
+      <c r="Z36" s="12"/>
+      <c r="AA36" s="12"/>
+      <c r="AB36" s="12"/>
+      <c r="AC36" s="12"/>
+      <c r="AD36" s="12"/>
+      <c r="AE36" s="12"/>
     </row>
     <row r="37" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="9"/>
-      <c r="U37" s="9"/>
-      <c r="V37" s="9"/>
-      <c r="W37" s="9"/>
-      <c r="X37" s="9"/>
-      <c r="Y37" s="9"/>
-      <c r="Z37" s="9"/>
-      <c r="AA37" s="9"/>
-      <c r="AB37" s="9"/>
-      <c r="AC37" s="9"/>
-      <c r="AD37" s="9"/>
-      <c r="AE37" s="9"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="12"/>
+      <c r="Y37" s="12"/>
+      <c r="Z37" s="12"/>
+      <c r="AA37" s="12"/>
+      <c r="AB37" s="12"/>
+      <c r="AC37" s="12"/>
+      <c r="AD37" s="12"/>
+      <c r="AE37" s="12"/>
     </row>
     <row r="38" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="9"/>
-      <c r="U38" s="9"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="9"/>
-      <c r="X38" s="9"/>
-      <c r="Y38" s="9"/>
-      <c r="Z38" s="9"/>
-      <c r="AA38" s="9"/>
-      <c r="AB38" s="9"/>
-      <c r="AC38" s="9"/>
-      <c r="AD38" s="9"/>
-      <c r="AE38" s="9"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="12"/>
+      <c r="X38" s="12"/>
+      <c r="Y38" s="12"/>
+      <c r="Z38" s="12"/>
+      <c r="AA38" s="12"/>
+      <c r="AB38" s="12"/>
+      <c r="AC38" s="12"/>
+      <c r="AD38" s="12"/>
+      <c r="AE38" s="12"/>
     </row>
     <row r="39" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="9"/>
-      <c r="R39" s="9"/>
-      <c r="S39" s="9"/>
-      <c r="T39" s="9"/>
-      <c r="U39" s="9"/>
-      <c r="V39" s="9"/>
-      <c r="W39" s="9"/>
-      <c r="X39" s="9"/>
-      <c r="Y39" s="9"/>
-      <c r="Z39" s="9"/>
-      <c r="AA39" s="9"/>
-      <c r="AB39" s="9"/>
-      <c r="AC39" s="9"/>
-      <c r="AD39" s="9"/>
-      <c r="AE39" s="9"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="X39" s="12"/>
+      <c r="Y39" s="12"/>
+      <c r="Z39" s="12"/>
+      <c r="AA39" s="12"/>
+      <c r="AB39" s="12"/>
+      <c r="AC39" s="12"/>
+      <c r="AD39" s="12"/>
+      <c r="AE39" s="12"/>
     </row>
     <row r="40" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="9"/>
-      <c r="R40" s="9"/>
-      <c r="S40" s="9"/>
-      <c r="T40" s="9"/>
-      <c r="U40" s="9"/>
-      <c r="V40" s="9"/>
-      <c r="W40" s="9"/>
-      <c r="X40" s="9"/>
-      <c r="Y40" s="9"/>
-      <c r="Z40" s="9"/>
-      <c r="AA40" s="9"/>
-      <c r="AB40" s="9"/>
-      <c r="AC40" s="9"/>
-      <c r="AD40" s="9"/>
-      <c r="AE40" s="9"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="12"/>
+      <c r="X40" s="12"/>
+      <c r="Y40" s="12"/>
+      <c r="Z40" s="12"/>
+      <c r="AA40" s="12"/>
+      <c r="AB40" s="12"/>
+      <c r="AC40" s="12"/>
+      <c r="AD40" s="12"/>
+      <c r="AE40" s="12"/>
     </row>
     <row r="41" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="9"/>
-      <c r="Q41" s="9"/>
-      <c r="R41" s="9"/>
-      <c r="S41" s="9"/>
-      <c r="T41" s="9"/>
-      <c r="U41" s="9"/>
-      <c r="V41" s="9"/>
-      <c r="W41" s="9"/>
-      <c r="X41" s="9"/>
-      <c r="Y41" s="9"/>
-      <c r="Z41" s="9"/>
-      <c r="AA41" s="9"/>
-      <c r="AB41" s="9"/>
-      <c r="AC41" s="9"/>
-      <c r="AD41" s="9"/>
-      <c r="AE41" s="9"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="X41" s="12"/>
+      <c r="Y41" s="12"/>
+      <c r="Z41" s="12"/>
+      <c r="AA41" s="12"/>
+      <c r="AB41" s="12"/>
+      <c r="AC41" s="12"/>
+      <c r="AD41" s="12"/>
+      <c r="AE41" s="12"/>
     </row>
     <row r="42" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="9"/>
-      <c r="P42" s="9"/>
-      <c r="Q42" s="9"/>
-      <c r="R42" s="9"/>
-      <c r="S42" s="9"/>
-      <c r="T42" s="9"/>
-      <c r="U42" s="9"/>
-      <c r="V42" s="9"/>
-      <c r="W42" s="9"/>
-      <c r="X42" s="9"/>
-      <c r="Y42" s="9"/>
-      <c r="Z42" s="9"/>
-      <c r="AA42" s="9"/>
-      <c r="AB42" s="9"/>
-      <c r="AC42" s="9"/>
-      <c r="AD42" s="9"/>
-      <c r="AE42" s="9"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="12"/>
+      <c r="X42" s="12"/>
+      <c r="Y42" s="12"/>
+      <c r="Z42" s="12"/>
+      <c r="AA42" s="12"/>
+      <c r="AB42" s="12"/>
+      <c r="AC42" s="12"/>
+      <c r="AD42" s="12"/>
+      <c r="AE42" s="12"/>
     </row>
     <row r="43" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="9"/>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="9"/>
-      <c r="R43" s="9"/>
-      <c r="S43" s="9"/>
-      <c r="T43" s="9"/>
-      <c r="U43" s="9"/>
-      <c r="V43" s="9"/>
-      <c r="W43" s="9"/>
-      <c r="X43" s="9"/>
-      <c r="Y43" s="9"/>
-      <c r="Z43" s="9"/>
-      <c r="AA43" s="9"/>
-      <c r="AB43" s="9"/>
-      <c r="AC43" s="9"/>
-      <c r="AD43" s="9"/>
-      <c r="AE43" s="9"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="12"/>
+      <c r="W43" s="12"/>
+      <c r="X43" s="12"/>
+      <c r="Y43" s="12"/>
+      <c r="Z43" s="12"/>
+      <c r="AA43" s="12"/>
+      <c r="AB43" s="12"/>
+      <c r="AC43" s="12"/>
+      <c r="AD43" s="12"/>
+      <c r="AE43" s="12"/>
     </row>
     <row r="44" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
-      <c r="O44" s="9"/>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="9"/>
-      <c r="R44" s="9"/>
-      <c r="S44" s="9"/>
-      <c r="T44" s="9"/>
-      <c r="U44" s="9"/>
-      <c r="V44" s="9"/>
-      <c r="W44" s="9"/>
-      <c r="X44" s="9"/>
-      <c r="Y44" s="9"/>
-      <c r="Z44" s="9"/>
-      <c r="AA44" s="9"/>
-      <c r="AB44" s="9"/>
-      <c r="AC44" s="9"/>
-      <c r="AD44" s="9"/>
-      <c r="AE44" s="9"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+      <c r="V44" s="12"/>
+      <c r="W44" s="12"/>
+      <c r="X44" s="12"/>
+      <c r="Y44" s="12"/>
+      <c r="Z44" s="12"/>
+      <c r="AA44" s="12"/>
+      <c r="AB44" s="12"/>
+      <c r="AC44" s="12"/>
+      <c r="AD44" s="12"/>
+      <c r="AE44" s="12"/>
     </row>
     <row r="45" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
-      <c r="O45" s="9"/>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="9"/>
-      <c r="R45" s="9"/>
-      <c r="S45" s="9"/>
-      <c r="T45" s="9"/>
-      <c r="U45" s="9"/>
-      <c r="V45" s="9"/>
-      <c r="W45" s="9"/>
-      <c r="X45" s="9"/>
-      <c r="Y45" s="9"/>
-      <c r="Z45" s="9"/>
-      <c r="AA45" s="9"/>
-      <c r="AB45" s="9"/>
-      <c r="AC45" s="9"/>
-      <c r="AD45" s="9"/>
-      <c r="AE45" s="9"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
+      <c r="V45" s="12"/>
+      <c r="W45" s="12"/>
+      <c r="X45" s="12"/>
+      <c r="Y45" s="12"/>
+      <c r="Z45" s="12"/>
+      <c r="AA45" s="12"/>
+      <c r="AB45" s="12"/>
+      <c r="AC45" s="12"/>
+      <c r="AD45" s="12"/>
+      <c r="AE45" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="E18:Q18"/>
-    <mergeCell ref="E19:Q19"/>
-    <mergeCell ref="E20:Q20"/>
-    <mergeCell ref="E21:Q21"/>
-    <mergeCell ref="E15:Q15"/>
-    <mergeCell ref="S12:AE12"/>
-    <mergeCell ref="S13:AE13"/>
-    <mergeCell ref="S14:AE14"/>
-    <mergeCell ref="E16:Q16"/>
-    <mergeCell ref="E17:Q17"/>
-    <mergeCell ref="E10:Q10"/>
-    <mergeCell ref="E11:Q11"/>
-    <mergeCell ref="E12:Q12"/>
-    <mergeCell ref="E13:Q13"/>
-    <mergeCell ref="E14:Q14"/>
+    <mergeCell ref="E22:Q22"/>
+    <mergeCell ref="C34:AE45"/>
+    <mergeCell ref="S24:AE24"/>
+    <mergeCell ref="S25:AE25"/>
+    <mergeCell ref="E24:Q24"/>
+    <mergeCell ref="E25:Q25"/>
+    <mergeCell ref="S22:AE22"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="G6:L6"/>
     <mergeCell ref="O6:R6"/>
@@ -2083,17 +2092,25 @@
     <mergeCell ref="S15:AE15"/>
     <mergeCell ref="S16:AE16"/>
     <mergeCell ref="E23:Q23"/>
-    <mergeCell ref="E22:Q22"/>
-    <mergeCell ref="C34:AE45"/>
-    <mergeCell ref="S24:AE24"/>
-    <mergeCell ref="S25:AE25"/>
-    <mergeCell ref="E24:Q24"/>
-    <mergeCell ref="E25:Q25"/>
-    <mergeCell ref="S22:AE22"/>
+    <mergeCell ref="E10:Q10"/>
+    <mergeCell ref="E11:Q11"/>
+    <mergeCell ref="E12:Q12"/>
+    <mergeCell ref="E13:Q13"/>
+    <mergeCell ref="E14:Q14"/>
+    <mergeCell ref="S12:AE12"/>
+    <mergeCell ref="S13:AE13"/>
+    <mergeCell ref="S14:AE14"/>
+    <mergeCell ref="E16:Q16"/>
+    <mergeCell ref="E17:Q17"/>
+    <mergeCell ref="E18:Q18"/>
+    <mergeCell ref="E19:Q19"/>
+    <mergeCell ref="E20:Q20"/>
+    <mergeCell ref="E21:Q21"/>
+    <mergeCell ref="E15:Q15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11 D17:D20 D23:D25" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D25" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$D$9:$D$10</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R11:R25" xr:uid="{00000000-0002-0000-0000-000001000000}">
@@ -2106,18 +2123,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2298,18 +2315,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BC29833-3DEA-437D-9C3E-254DD3A9ED62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5762924B-D593-4191-BBB9-A4EA22D1509B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5762924B-D593-4191-BBB9-A4EA22D1509B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BC29833-3DEA-437D-9C3E-254DD3A9ED62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/2年/アーキテクチャ/01_3DCannon/00_BaseProject/実装ノート.xlsx
+++ b/2年/アーキテクチャ/01_3DCannon/00_BaseProject/実装ノート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20357"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9524350F-5B70-4F6B-8C78-7B92AC4A5426}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F37441-76B9-49BC-A854-5068CCBEC264}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
   <si>
     <t>３Ｄキャノン実装ノート</t>
     <rPh sb="6" eb="8">
@@ -612,7 +612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -634,22 +634,25 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -934,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:AE45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="AG13" sqref="AG13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -955,36 +958,36 @@
       </c>
     </row>
     <row r="6" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12">
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="11">
         <v>2216009</v>
       </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="O6" s="11" t="s">
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="O6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="12" t="s">
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
     </row>
     <row r="7" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C7" s="3"/>
@@ -1022,21 +1025,21 @@
       <c r="D10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
       <c r="R10" s="4" t="s">
         <v>5</v>
       </c>
@@ -1063,37 +1066,39 @@
       <c r="D11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="9" t="s">
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="S11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="9"/>
-      <c r="AA11" s="9"/>
-      <c r="AB11" s="9"/>
-      <c r="AC11" s="9"/>
-      <c r="AD11" s="9"/>
-      <c r="AE11" s="9"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
     </row>
     <row r="12" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C12" s="5" t="s">
@@ -1102,37 +1107,37 @@
       <c r="D12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
       <c r="R12" s="6"/>
-      <c r="S12" s="9" t="s">
+      <c r="S12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="9"/>
-      <c r="AA12" s="9"/>
-      <c r="AB12" s="9"/>
-      <c r="AC12" s="9"/>
-      <c r="AD12" s="9"/>
-      <c r="AE12" s="9"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
     </row>
     <row r="13" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C13" s="5" t="s">
@@ -1141,37 +1146,37 @@
       <c r="D13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
       <c r="R13" s="6"/>
-      <c r="S13" s="9" t="s">
+      <c r="S13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="9"/>
-      <c r="AA13" s="9"/>
-      <c r="AB13" s="9"/>
-      <c r="AC13" s="9"/>
-      <c r="AD13" s="9"/>
-      <c r="AE13" s="9"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
     </row>
     <row r="14" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C14" s="5" t="s">
@@ -1180,37 +1185,37 @@
       <c r="D14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
       <c r="R14" s="6"/>
-      <c r="S14" s="9" t="s">
+      <c r="S14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="9"/>
-      <c r="AE14" s="9"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
     </row>
     <row r="15" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C15" s="5" t="s">
@@ -1219,37 +1224,37 @@
       <c r="D15" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
       <c r="R15" s="6"/>
-      <c r="S15" s="9" t="s">
+      <c r="S15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="9"/>
-      <c r="AA15" s="9"/>
-      <c r="AB15" s="9"/>
-      <c r="AC15" s="9"/>
-      <c r="AD15" s="9"/>
-      <c r="AE15" s="9"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
     </row>
     <row r="16" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C16" s="5" t="s">
@@ -1258,37 +1263,37 @@
       <c r="D16" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
       <c r="R16" s="6"/>
-      <c r="S16" s="9" t="s">
+      <c r="S16" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="9"/>
-      <c r="AA16" s="9"/>
-      <c r="AB16" s="9"/>
-      <c r="AC16" s="9"/>
-      <c r="AD16" s="9"/>
-      <c r="AE16" s="9"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
     </row>
     <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="5" t="s">
@@ -1297,37 +1302,37 @@
       <c r="D17" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
       <c r="R17" s="6"/>
-      <c r="S17" s="9" t="s">
+      <c r="S17" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="9"/>
-      <c r="AA17" s="9"/>
-      <c r="AB17" s="9"/>
-      <c r="AC17" s="9"/>
-      <c r="AD17" s="9"/>
-      <c r="AE17" s="9"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
     </row>
     <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="5" t="s">
@@ -1336,37 +1341,37 @@
       <c r="D18" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
       <c r="R18" s="6"/>
-      <c r="S18" s="9" t="s">
+      <c r="S18" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="9"/>
-      <c r="Z18" s="9"/>
-      <c r="AA18" s="9"/>
-      <c r="AB18" s="9"/>
-      <c r="AC18" s="9"/>
-      <c r="AD18" s="9"/>
-      <c r="AE18" s="9"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
     </row>
     <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="5" t="s">
@@ -1375,37 +1380,37 @@
       <c r="D19" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
       <c r="R19" s="6"/>
-      <c r="S19" s="9" t="s">
+      <c r="S19" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="9"/>
-      <c r="Z19" s="9"/>
-      <c r="AA19" s="9"/>
-      <c r="AB19" s="9"/>
-      <c r="AC19" s="9"/>
-      <c r="AD19" s="9"/>
-      <c r="AE19" s="9"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
     </row>
     <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="5" t="s">
@@ -1414,35 +1419,35 @@
       <c r="D20" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
       <c r="R20" s="6"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="9"/>
-      <c r="AA20" s="9"/>
-      <c r="AB20" s="9"/>
-      <c r="AC20" s="9"/>
-      <c r="AD20" s="9"/>
-      <c r="AE20" s="9"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="10"/>
+      <c r="AE20" s="10"/>
     </row>
     <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="5" t="s">
@@ -1451,35 +1456,35 @@
       <c r="D21" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
       <c r="R21" s="6"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="9"/>
-      <c r="AA21" s="9"/>
-      <c r="AB21" s="9"/>
-      <c r="AC21" s="9"/>
-      <c r="AD21" s="9"/>
-      <c r="AE21" s="9"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="10"/>
     </row>
     <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="5" t="s">
@@ -1488,35 +1493,35 @@
       <c r="D22" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
       <c r="R22" s="6"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="9"/>
-      <c r="AA22" s="9"/>
-      <c r="AB22" s="9"/>
-      <c r="AC22" s="9"/>
-      <c r="AD22" s="9"/>
-      <c r="AE22" s="9"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
     </row>
     <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="5" t="s">
@@ -1525,35 +1530,35 @@
       <c r="D23" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
       <c r="R23" s="6"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="9"/>
-      <c r="AA23" s="9"/>
-      <c r="AB23" s="9"/>
-      <c r="AC23" s="9"/>
-      <c r="AD23" s="9"/>
-      <c r="AE23" s="9"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
     </row>
     <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="5" t="s">
@@ -1562,68 +1567,68 @@
       <c r="D24" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
       <c r="R24" s="6"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="9"/>
-      <c r="AA24" s="9"/>
-      <c r="AB24" s="9"/>
-      <c r="AC24" s="9"/>
-      <c r="AD24" s="9"/>
-      <c r="AE24" s="9"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="10"/>
     </row>
     <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D25" s="6"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
       <c r="R25" s="6"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="9"/>
-      <c r="Z25" s="9"/>
-      <c r="AA25" s="9"/>
-      <c r="AB25" s="9"/>
-      <c r="AC25" s="9"/>
-      <c r="AD25" s="9"/>
-      <c r="AE25" s="9"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="10"/>
+      <c r="AE25" s="10"/>
     </row>
     <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="D27" s="3" t="s">
@@ -1696,386 +1701,394 @@
       <c r="AE33" s="13"/>
     </row>
     <row r="34" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="12"/>
-      <c r="S34" s="12"/>
-      <c r="T34" s="12"/>
-      <c r="U34" s="12"/>
-      <c r="V34" s="12"/>
-      <c r="W34" s="12"/>
-      <c r="X34" s="12"/>
-      <c r="Y34" s="12"/>
-      <c r="Z34" s="12"/>
-      <c r="AA34" s="12"/>
-      <c r="AB34" s="12"/>
-      <c r="AC34" s="12"/>
-      <c r="AD34" s="12"/>
-      <c r="AE34" s="12"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11"/>
+      <c r="Z34" s="11"/>
+      <c r="AA34" s="11"/>
+      <c r="AB34" s="11"/>
+      <c r="AC34" s="11"/>
+      <c r="AD34" s="11"/>
+      <c r="AE34" s="11"/>
     </row>
     <row r="35" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12"/>
-      <c r="R35" s="12"/>
-      <c r="S35" s="12"/>
-      <c r="T35" s="12"/>
-      <c r="U35" s="12"/>
-      <c r="V35" s="12"/>
-      <c r="W35" s="12"/>
-      <c r="X35" s="12"/>
-      <c r="Y35" s="12"/>
-      <c r="Z35" s="12"/>
-      <c r="AA35" s="12"/>
-      <c r="AB35" s="12"/>
-      <c r="AC35" s="12"/>
-      <c r="AD35" s="12"/>
-      <c r="AE35" s="12"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
+      <c r="W35" s="11"/>
+      <c r="X35" s="11"/>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="11"/>
+      <c r="AA35" s="11"/>
+      <c r="AB35" s="11"/>
+      <c r="AC35" s="11"/>
+      <c r="AD35" s="11"/>
+      <c r="AE35" s="11"/>
     </row>
     <row r="36" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="12"/>
-      <c r="S36" s="12"/>
-      <c r="T36" s="12"/>
-      <c r="U36" s="12"/>
-      <c r="V36" s="12"/>
-      <c r="W36" s="12"/>
-      <c r="X36" s="12"/>
-      <c r="Y36" s="12"/>
-      <c r="Z36" s="12"/>
-      <c r="AA36" s="12"/>
-      <c r="AB36" s="12"/>
-      <c r="AC36" s="12"/>
-      <c r="AD36" s="12"/>
-      <c r="AE36" s="12"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="11"/>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="11"/>
+      <c r="AA36" s="11"/>
+      <c r="AB36" s="11"/>
+      <c r="AC36" s="11"/>
+      <c r="AD36" s="11"/>
+      <c r="AE36" s="11"/>
     </row>
     <row r="37" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="12"/>
-      <c r="S37" s="12"/>
-      <c r="T37" s="12"/>
-      <c r="U37" s="12"/>
-      <c r="V37" s="12"/>
-      <c r="W37" s="12"/>
-      <c r="X37" s="12"/>
-      <c r="Y37" s="12"/>
-      <c r="Z37" s="12"/>
-      <c r="AA37" s="12"/>
-      <c r="AB37" s="12"/>
-      <c r="AC37" s="12"/>
-      <c r="AD37" s="12"/>
-      <c r="AE37" s="12"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="11"/>
+      <c r="W37" s="11"/>
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="11"/>
+      <c r="AA37" s="11"/>
+      <c r="AB37" s="11"/>
+      <c r="AC37" s="11"/>
+      <c r="AD37" s="11"/>
+      <c r="AE37" s="11"/>
     </row>
     <row r="38" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="12"/>
-      <c r="R38" s="12"/>
-      <c r="S38" s="12"/>
-      <c r="T38" s="12"/>
-      <c r="U38" s="12"/>
-      <c r="V38" s="12"/>
-      <c r="W38" s="12"/>
-      <c r="X38" s="12"/>
-      <c r="Y38" s="12"/>
-      <c r="Z38" s="12"/>
-      <c r="AA38" s="12"/>
-      <c r="AB38" s="12"/>
-      <c r="AC38" s="12"/>
-      <c r="AD38" s="12"/>
-      <c r="AE38" s="12"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="11"/>
+      <c r="W38" s="11"/>
+      <c r="X38" s="11"/>
+      <c r="Y38" s="11"/>
+      <c r="Z38" s="11"/>
+      <c r="AA38" s="11"/>
+      <c r="AB38" s="11"/>
+      <c r="AC38" s="11"/>
+      <c r="AD38" s="11"/>
+      <c r="AE38" s="11"/>
     </row>
     <row r="39" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="12"/>
-      <c r="S39" s="12"/>
-      <c r="T39" s="12"/>
-      <c r="U39" s="12"/>
-      <c r="V39" s="12"/>
-      <c r="W39" s="12"/>
-      <c r="X39" s="12"/>
-      <c r="Y39" s="12"/>
-      <c r="Z39" s="12"/>
-      <c r="AA39" s="12"/>
-      <c r="AB39" s="12"/>
-      <c r="AC39" s="12"/>
-      <c r="AD39" s="12"/>
-      <c r="AE39" s="12"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="11"/>
+      <c r="X39" s="11"/>
+      <c r="Y39" s="11"/>
+      <c r="Z39" s="11"/>
+      <c r="AA39" s="11"/>
+      <c r="AB39" s="11"/>
+      <c r="AC39" s="11"/>
+      <c r="AD39" s="11"/>
+      <c r="AE39" s="11"/>
     </row>
     <row r="40" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="12"/>
-      <c r="Q40" s="12"/>
-      <c r="R40" s="12"/>
-      <c r="S40" s="12"/>
-      <c r="T40" s="12"/>
-      <c r="U40" s="12"/>
-      <c r="V40" s="12"/>
-      <c r="W40" s="12"/>
-      <c r="X40" s="12"/>
-      <c r="Y40" s="12"/>
-      <c r="Z40" s="12"/>
-      <c r="AA40" s="12"/>
-      <c r="AB40" s="12"/>
-      <c r="AC40" s="12"/>
-      <c r="AD40" s="12"/>
-      <c r="AE40" s="12"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="11"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="11"/>
+      <c r="AA40" s="11"/>
+      <c r="AB40" s="11"/>
+      <c r="AC40" s="11"/>
+      <c r="AD40" s="11"/>
+      <c r="AE40" s="11"/>
     </row>
     <row r="41" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
-      <c r="P41" s="12"/>
-      <c r="Q41" s="12"/>
-      <c r="R41" s="12"/>
-      <c r="S41" s="12"/>
-      <c r="T41" s="12"/>
-      <c r="U41" s="12"/>
-      <c r="V41" s="12"/>
-      <c r="W41" s="12"/>
-      <c r="X41" s="12"/>
-      <c r="Y41" s="12"/>
-      <c r="Z41" s="12"/>
-      <c r="AA41" s="12"/>
-      <c r="AB41" s="12"/>
-      <c r="AC41" s="12"/>
-      <c r="AD41" s="12"/>
-      <c r="AE41" s="12"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="11"/>
+      <c r="V41" s="11"/>
+      <c r="W41" s="11"/>
+      <c r="X41" s="11"/>
+      <c r="Y41" s="11"/>
+      <c r="Z41" s="11"/>
+      <c r="AA41" s="11"/>
+      <c r="AB41" s="11"/>
+      <c r="AC41" s="11"/>
+      <c r="AD41" s="11"/>
+      <c r="AE41" s="11"/>
     </row>
     <row r="42" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="12"/>
-      <c r="P42" s="12"/>
-      <c r="Q42" s="12"/>
-      <c r="R42" s="12"/>
-      <c r="S42" s="12"/>
-      <c r="T42" s="12"/>
-      <c r="U42" s="12"/>
-      <c r="V42" s="12"/>
-      <c r="W42" s="12"/>
-      <c r="X42" s="12"/>
-      <c r="Y42" s="12"/>
-      <c r="Z42" s="12"/>
-      <c r="AA42" s="12"/>
-      <c r="AB42" s="12"/>
-      <c r="AC42" s="12"/>
-      <c r="AD42" s="12"/>
-      <c r="AE42" s="12"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
+      <c r="U42" s="11"/>
+      <c r="V42" s="11"/>
+      <c r="W42" s="11"/>
+      <c r="X42" s="11"/>
+      <c r="Y42" s="11"/>
+      <c r="Z42" s="11"/>
+      <c r="AA42" s="11"/>
+      <c r="AB42" s="11"/>
+      <c r="AC42" s="11"/>
+      <c r="AD42" s="11"/>
+      <c r="AE42" s="11"/>
     </row>
     <row r="43" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="12"/>
-      <c r="P43" s="12"/>
-      <c r="Q43" s="12"/>
-      <c r="R43" s="12"/>
-      <c r="S43" s="12"/>
-      <c r="T43" s="12"/>
-      <c r="U43" s="12"/>
-      <c r="V43" s="12"/>
-      <c r="W43" s="12"/>
-      <c r="X43" s="12"/>
-      <c r="Y43" s="12"/>
-      <c r="Z43" s="12"/>
-      <c r="AA43" s="12"/>
-      <c r="AB43" s="12"/>
-      <c r="AC43" s="12"/>
-      <c r="AD43" s="12"/>
-      <c r="AE43" s="12"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="11"/>
+      <c r="W43" s="11"/>
+      <c r="X43" s="11"/>
+      <c r="Y43" s="11"/>
+      <c r="Z43" s="11"/>
+      <c r="AA43" s="11"/>
+      <c r="AB43" s="11"/>
+      <c r="AC43" s="11"/>
+      <c r="AD43" s="11"/>
+      <c r="AE43" s="11"/>
     </row>
     <row r="44" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="12"/>
-      <c r="O44" s="12"/>
-      <c r="P44" s="12"/>
-      <c r="Q44" s="12"/>
-      <c r="R44" s="12"/>
-      <c r="S44" s="12"/>
-      <c r="T44" s="12"/>
-      <c r="U44" s="12"/>
-      <c r="V44" s="12"/>
-      <c r="W44" s="12"/>
-      <c r="X44" s="12"/>
-      <c r="Y44" s="12"/>
-      <c r="Z44" s="12"/>
-      <c r="AA44" s="12"/>
-      <c r="AB44" s="12"/>
-      <c r="AC44" s="12"/>
-      <c r="AD44" s="12"/>
-      <c r="AE44" s="12"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="11"/>
+      <c r="U44" s="11"/>
+      <c r="V44" s="11"/>
+      <c r="W44" s="11"/>
+      <c r="X44" s="11"/>
+      <c r="Y44" s="11"/>
+      <c r="Z44" s="11"/>
+      <c r="AA44" s="11"/>
+      <c r="AB44" s="11"/>
+      <c r="AC44" s="11"/>
+      <c r="AD44" s="11"/>
+      <c r="AE44" s="11"/>
     </row>
     <row r="45" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="12"/>
-      <c r="O45" s="12"/>
-      <c r="P45" s="12"/>
-      <c r="Q45" s="12"/>
-      <c r="R45" s="12"/>
-      <c r="S45" s="12"/>
-      <c r="T45" s="12"/>
-      <c r="U45" s="12"/>
-      <c r="V45" s="12"/>
-      <c r="W45" s="12"/>
-      <c r="X45" s="12"/>
-      <c r="Y45" s="12"/>
-      <c r="Z45" s="12"/>
-      <c r="AA45" s="12"/>
-      <c r="AB45" s="12"/>
-      <c r="AC45" s="12"/>
-      <c r="AD45" s="12"/>
-      <c r="AE45" s="12"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="11"/>
+      <c r="T45" s="11"/>
+      <c r="U45" s="11"/>
+      <c r="V45" s="11"/>
+      <c r="W45" s="11"/>
+      <c r="X45" s="11"/>
+      <c r="Y45" s="11"/>
+      <c r="Z45" s="11"/>
+      <c r="AA45" s="11"/>
+      <c r="AB45" s="11"/>
+      <c r="AC45" s="11"/>
+      <c r="AD45" s="11"/>
+      <c r="AE45" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="E22:Q22"/>
-    <mergeCell ref="C34:AE45"/>
-    <mergeCell ref="S24:AE24"/>
-    <mergeCell ref="S25:AE25"/>
-    <mergeCell ref="E24:Q24"/>
-    <mergeCell ref="E25:Q25"/>
-    <mergeCell ref="S22:AE22"/>
+    <mergeCell ref="E18:Q18"/>
+    <mergeCell ref="E19:Q19"/>
+    <mergeCell ref="E20:Q20"/>
+    <mergeCell ref="E21:Q21"/>
+    <mergeCell ref="E15:Q15"/>
+    <mergeCell ref="S12:AE12"/>
+    <mergeCell ref="S13:AE13"/>
+    <mergeCell ref="S14:AE14"/>
+    <mergeCell ref="E16:Q16"/>
+    <mergeCell ref="E17:Q17"/>
+    <mergeCell ref="E10:Q10"/>
+    <mergeCell ref="E11:Q11"/>
+    <mergeCell ref="E12:Q12"/>
+    <mergeCell ref="E13:Q13"/>
+    <mergeCell ref="E14:Q14"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="G6:L6"/>
     <mergeCell ref="O6:R6"/>
@@ -2092,28 +2105,20 @@
     <mergeCell ref="S15:AE15"/>
     <mergeCell ref="S16:AE16"/>
     <mergeCell ref="E23:Q23"/>
-    <mergeCell ref="E10:Q10"/>
-    <mergeCell ref="E11:Q11"/>
-    <mergeCell ref="E12:Q12"/>
-    <mergeCell ref="E13:Q13"/>
-    <mergeCell ref="E14:Q14"/>
-    <mergeCell ref="S12:AE12"/>
-    <mergeCell ref="S13:AE13"/>
-    <mergeCell ref="S14:AE14"/>
-    <mergeCell ref="E16:Q16"/>
-    <mergeCell ref="E17:Q17"/>
-    <mergeCell ref="E18:Q18"/>
-    <mergeCell ref="E19:Q19"/>
-    <mergeCell ref="E20:Q20"/>
-    <mergeCell ref="E21:Q21"/>
-    <mergeCell ref="E15:Q15"/>
+    <mergeCell ref="E22:Q22"/>
+    <mergeCell ref="C34:AE45"/>
+    <mergeCell ref="S24:AE24"/>
+    <mergeCell ref="S25:AE25"/>
+    <mergeCell ref="E24:Q24"/>
+    <mergeCell ref="E25:Q25"/>
+    <mergeCell ref="S22:AE22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D25" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$D$9:$D$10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R11:R25" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R12:R25" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$R$9:$R$10</formula1>
     </dataValidation>
   </dataValidations>
@@ -2123,21 +2128,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E433D7FE0E058548BB0DC3C39F0868B1" ma:contentTypeVersion="6" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="9a9f7fdaf8a7504d9f6eea2ba17e49bc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7cc9f2ad-e9a2-45a1-91ec-506aa1f5db4e" xmlns:ns3="81cdc738-3520-42f8-bc3d-48d7a6da35d4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="38cf9d798fddb59c308806a1ede14a8e" ns2:_="" ns3:_="">
     <xsd:import namespace="7cc9f2ad-e9a2-45a1-91ec-506aa1f5db4e"/>
@@ -2314,24 +2304,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5762924B-D593-4191-BBB9-A4EA22D1509B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BC29833-3DEA-437D-9C3E-254DD3A9ED62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CADCA5E-AB20-4DD4-8E81-ABB46E0EA24A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2348,4 +2336,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BC29833-3DEA-437D-9C3E-254DD3A9ED62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5762924B-D593-4191-BBB9-A4EA22D1509B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>